--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8926,6 +8926,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GTM2</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>416889600000</v>
+      </c>
+      <c r="D340" t="n">
+        <v>416889600000</v>
+      </c>
+      <c r="E340" t="n">
+        <v>416889600000</v>
+      </c>
+      <c r="F340" t="n">
+        <v>416889600000</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GTM2</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>420736800000</v>
+      </c>
+      <c r="D341" t="n">
+        <v>420736800000</v>
+      </c>
+      <c r="E341" t="n">
+        <v>420736800000</v>
+      </c>
+      <c r="F341" t="n">
+        <v>420736800000</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GTM2</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>419195500000</v>
+      </c>
+      <c r="D342" t="n">
+        <v>419195500000</v>
+      </c>
+      <c r="E342" t="n">
+        <v>419195500000</v>
+      </c>
+      <c r="F342" t="n">
+        <v>419195500000</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9001,6 +9001,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GTM2</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>426388900000</v>
+      </c>
+      <c r="D343" t="n">
+        <v>426388900000</v>
+      </c>
+      <c r="E343" t="n">
+        <v>426388900000</v>
+      </c>
+      <c r="F343" t="n">
+        <v>426388900000</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G343"/>
+  <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -9023,6 +9023,31 @@
         <v>426388900000</v>
       </c>
       <c r="G343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GTM2</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>430006000000</v>
+      </c>
+      <c r="D344" t="n">
+        <v>430006000000</v>
+      </c>
+      <c r="E344" t="n">
+        <v>430006000000</v>
+      </c>
+      <c r="F344" t="n">
+        <v>430006000000</v>
+      </c>
+      <c r="G344" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G344"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9051,6 +9051,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GTM2</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>428215000000</v>
+      </c>
+      <c r="D345" t="n">
+        <v>428215000000</v>
+      </c>
+      <c r="E345" t="n">
+        <v>428215000000</v>
+      </c>
+      <c r="F345" t="n">
+        <v>428215000000</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GTM2</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>429943600000</v>
+      </c>
+      <c r="D346" t="n">
+        <v>429943600000</v>
+      </c>
+      <c r="E346" t="n">
+        <v>429943600000</v>
+      </c>
+      <c r="F346" t="n">
+        <v>429943600000</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Guatemala_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G346"/>
+  <dimension ref="A1:G347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9101,6 +9101,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GTM2</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>428026500000</v>
+      </c>
+      <c r="D347" t="n">
+        <v>428026500000</v>
+      </c>
+      <c r="E347" t="n">
+        <v>428026500000</v>
+      </c>
+      <c r="F347" t="n">
+        <v>428026500000</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
